--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H2">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>3874.716743229596</v>
+        <v>3914.549750849091</v>
       </c>
       <c r="R2">
-        <v>3874.716743229596</v>
+        <v>35230.94775764181</v>
       </c>
       <c r="S2">
-        <v>0.05681688626544753</v>
+        <v>0.05451162897324571</v>
       </c>
       <c r="T2">
-        <v>0.05681688626544753</v>
+        <v>0.05451162897324572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H3">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>4124.409549069022</v>
+        <v>4126.080445868904</v>
       </c>
       <c r="R3">
-        <v>4124.409549069022</v>
+        <v>37134.72401282014</v>
       </c>
       <c r="S3">
-        <v>0.06047825526112138</v>
+        <v>0.05745727623724377</v>
       </c>
       <c r="T3">
-        <v>0.06047825526112138</v>
+        <v>0.05745727623724377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H4">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>2659.522291221165</v>
+        <v>2665.815609193593</v>
       </c>
       <c r="R4">
-        <v>2659.522291221165</v>
+        <v>23992.34048274233</v>
       </c>
       <c r="S4">
-        <v>0.03899788953728472</v>
+        <v>0.03712251999554424</v>
       </c>
       <c r="T4">
-        <v>0.03899788953728472</v>
+        <v>0.03712251999554426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H5">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>2062.136323150553</v>
+        <v>2079.269562238829</v>
       </c>
       <c r="R5">
-        <v>2062.136323150553</v>
+        <v>18713.42606014946</v>
       </c>
       <c r="S5">
-        <v>0.03023812389409302</v>
+        <v>0.0289546379855157</v>
       </c>
       <c r="T5">
-        <v>0.03023812389409302</v>
+        <v>0.02895463798551571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H6">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I6">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J6">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>1363.274378454638</v>
+        <v>1428.320208978728</v>
       </c>
       <c r="R6">
-        <v>1363.274378454638</v>
+        <v>12854.88188080855</v>
       </c>
       <c r="S6">
-        <v>0.01999036586212365</v>
+        <v>0.01988991486695215</v>
       </c>
       <c r="T6">
-        <v>0.01999036586212365</v>
+        <v>0.01988991486695216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H7">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>10045.84497010348</v>
+        <v>10185.19606412367</v>
       </c>
       <c r="R7">
-        <v>10045.84497010348</v>
+        <v>91666.76457711299</v>
       </c>
       <c r="S7">
-        <v>0.1473071888684552</v>
+        <v>0.1418328196612759</v>
       </c>
       <c r="T7">
-        <v>0.1473071888684552</v>
+        <v>0.141832819661276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H8">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>10693.21492869361</v>
+        <v>10735.57394650716</v>
       </c>
       <c r="R8">
-        <v>10693.21492869361</v>
+        <v>96620.16551856442</v>
       </c>
       <c r="S8">
-        <v>0.1567998944638132</v>
+        <v>0.1494970459016148</v>
       </c>
       <c r="T8">
-        <v>0.1567998944638132</v>
+        <v>0.1494970459016149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H9">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>6895.252066831948</v>
+        <v>6936.137328322012</v>
       </c>
       <c r="R9">
-        <v>6895.252066831948</v>
+        <v>62425.23595489811</v>
       </c>
       <c r="S9">
-        <v>0.1011084882881641</v>
+        <v>0.09658841210715408</v>
       </c>
       <c r="T9">
-        <v>0.1011084882881641</v>
+        <v>0.0965884121071541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H10">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J10">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>5346.429992795514</v>
+        <v>5410.013797109991</v>
       </c>
       <c r="R10">
-        <v>5346.429992795514</v>
+        <v>48690.12417398992</v>
       </c>
       <c r="S10">
-        <v>0.0783973448788539</v>
+        <v>0.0753365479093049</v>
       </c>
       <c r="T10">
-        <v>0.0783973448788539</v>
+        <v>0.07533654790930491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H11">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J11">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>3534.514640741048</v>
+        <v>3716.320470225965</v>
       </c>
       <c r="R11">
-        <v>3534.514640741048</v>
+        <v>33446.88423203368</v>
       </c>
       <c r="S11">
-        <v>0.05182833472858165</v>
+        <v>0.0517512090821414</v>
       </c>
       <c r="T11">
-        <v>0.05182833472858165</v>
+        <v>0.05175120908214142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H12">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>196.8363771037338</v>
+        <v>263.3748760740449</v>
       </c>
       <c r="R12">
-        <v>196.8363771037338</v>
+        <v>2370.373884666404</v>
       </c>
       <c r="S12">
-        <v>0.002886309062552008</v>
+        <v>0.003667597664918879</v>
       </c>
       <c r="T12">
-        <v>0.002886309062552008</v>
+        <v>0.003667597664918879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H13">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>209.5208210379072</v>
+        <v>277.606875699191</v>
       </c>
       <c r="R13">
-        <v>209.5208210379072</v>
+        <v>2498.461881292719</v>
       </c>
       <c r="S13">
-        <v>0.003072307331872639</v>
+        <v>0.003865783799338312</v>
       </c>
       <c r="T13">
-        <v>0.003072307331872639</v>
+        <v>0.003865783799338313</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H14">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I14">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J14">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>135.1042585358803</v>
+        <v>179.3587769718152</v>
       </c>
       <c r="R14">
-        <v>135.1042585358803</v>
+        <v>1614.228992746337</v>
       </c>
       <c r="S14">
-        <v>0.001981100503571927</v>
+        <v>0.002497640782637133</v>
       </c>
       <c r="T14">
-        <v>0.001981100503571927</v>
+        <v>0.002497640782637135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H15">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I15">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J15">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>104.7569331751066</v>
+        <v>139.8953642524025</v>
       </c>
       <c r="R15">
-        <v>104.7569331751066</v>
+        <v>1259.058278271623</v>
       </c>
       <c r="S15">
-        <v>0.001536102675925189</v>
+        <v>0.001948097399847816</v>
       </c>
       <c r="T15">
-        <v>0.001536102675925189</v>
+        <v>0.001948097399847817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H16">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I16">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J16">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>69.25460812644879</v>
+        <v>96.09883178831221</v>
       </c>
       <c r="R16">
-        <v>69.25460812644879</v>
+        <v>864.8894860948099</v>
       </c>
       <c r="S16">
-        <v>0.001015514540554228</v>
+        <v>0.001338213637997719</v>
       </c>
       <c r="T16">
-        <v>0.001015514540554228</v>
+        <v>0.001338213637997719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H17">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>586.6996735039975</v>
+        <v>1149.686243881647</v>
       </c>
       <c r="R17">
-        <v>586.6996735039975</v>
+        <v>10347.17619493482</v>
       </c>
       <c r="S17">
-        <v>0.008603067225416689</v>
+        <v>0.0160098284479657</v>
       </c>
       <c r="T17">
-        <v>0.008603067225416689</v>
+        <v>0.0160098284479657</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H18">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I18">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J18">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>624.5075178885614</v>
+        <v>1211.811889409655</v>
       </c>
       <c r="R18">
-        <v>624.5075178885614</v>
+        <v>10906.30700468689</v>
       </c>
       <c r="S18">
-        <v>0.009157462330063497</v>
+        <v>0.01687495224362357</v>
       </c>
       <c r="T18">
-        <v>0.009157462330063497</v>
+        <v>0.01687495224362358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H19">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I19">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J19">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>402.698045647463</v>
+        <v>782.9384551697316</v>
       </c>
       <c r="R19">
-        <v>402.698045647463</v>
+        <v>7046.446096527585</v>
       </c>
       <c r="S19">
-        <v>0.005904960433262348</v>
+        <v>0.01090272273786817</v>
       </c>
       <c r="T19">
-        <v>0.005904960433262348</v>
+        <v>0.01090272273786818</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H20">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I20">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J20">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>312.2433942112484</v>
+        <v>610.6724311038016</v>
       </c>
       <c r="R20">
-        <v>312.2433942112484</v>
+        <v>5496.051879934214</v>
       </c>
       <c r="S20">
-        <v>0.004578579181829648</v>
+        <v>0.008503851300216546</v>
       </c>
       <c r="T20">
-        <v>0.004578579181829648</v>
+        <v>0.008503851300216546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H21">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I21">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J21">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>206.423510604555</v>
+        <v>419.4914359601166</v>
       </c>
       <c r="R21">
-        <v>206.423510604555</v>
+        <v>3775.422923641049</v>
       </c>
       <c r="S21">
-        <v>0.003026889938477871</v>
+        <v>0.005841581527876076</v>
       </c>
       <c r="T21">
-        <v>0.003026889938477871</v>
+        <v>0.005841581527876076</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H22">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I22">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J22">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>4057.708404460412</v>
+        <v>4264.041060296117</v>
       </c>
       <c r="R22">
-        <v>4057.708404460412</v>
+        <v>38376.36954266505</v>
       </c>
       <c r="S22">
-        <v>0.05950018341790225</v>
+        <v>0.05937843149269709</v>
       </c>
       <c r="T22">
-        <v>0.05950018341790225</v>
+        <v>0.05937843149269709</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H23">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I23">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J23">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>4319.19347909414</v>
+        <v>4494.457232394024</v>
       </c>
       <c r="R23">
-        <v>4319.19347909414</v>
+        <v>40450.11509154621</v>
       </c>
       <c r="S23">
-        <v>0.06333446827795976</v>
+        <v>0.06258706637595848</v>
       </c>
       <c r="T23">
-        <v>0.06333446827795976</v>
+        <v>0.0625870663759585</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H24">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I24">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J24">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>2785.123834353659</v>
+        <v>2903.819836320685</v>
       </c>
       <c r="R24">
-        <v>2785.123834353659</v>
+        <v>26134.37852688617</v>
       </c>
       <c r="S24">
-        <v>0.04083964702920798</v>
+        <v>0.04043682149864867</v>
       </c>
       <c r="T24">
-        <v>0.04083964702920798</v>
+        <v>0.04043682149864868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H25">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I25">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J25">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>2159.525055402294</v>
+        <v>2264.906912190141</v>
       </c>
       <c r="R25">
-        <v>2159.525055402294</v>
+        <v>20384.16220971127</v>
       </c>
       <c r="S25">
-        <v>0.0316661829989429</v>
+        <v>0.03153971034075338</v>
       </c>
       <c r="T25">
-        <v>0.0316661829989429</v>
+        <v>0.03153971034075338</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>25.0308180702325</v>
+        <v>26.045992</v>
       </c>
       <c r="H26">
-        <v>25.0308180702325</v>
+        <v>78.13797599999999</v>
       </c>
       <c r="I26">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="J26">
-        <v>0.2162749347285357</v>
+        <v>0.2156077177377173</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>1427.657883045709</v>
+        <v>1555.840749505093</v>
       </c>
       <c r="R26">
-        <v>1427.657883045709</v>
+        <v>14002.56674554584</v>
       </c>
       <c r="S26">
-        <v>0.02093445300452281</v>
+        <v>0.02166568802965961</v>
       </c>
       <c r="T26">
-        <v>0.02093445300452281</v>
+        <v>0.02166568802965962</v>
       </c>
     </row>
   </sheetData>
